--- a/data/cells_data_normalized_y.xlsx
+++ b/data/cells_data_normalized_y.xlsx
@@ -1,32 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/dtb7yr-lab/Alikhan/spindle_9214/Endo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayn6k/lab_github/spindle_model/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5033FE2E-4718-AA4A-9383-90DE3889451F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B86BD0-9F0A-0C4A-962B-A732F9DC308B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30240" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30240" yWindow="3300" windowWidth="30240" windowHeight="18880" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cell_1" sheetId="1" r:id="rId1"/>
     <sheet name="cell_2" sheetId="2" r:id="rId2"/>
     <sheet name="cell_3" sheetId="3" r:id="rId3"/>
-    <sheet name="cell_5" sheetId="4" r:id="rId4"/>
-    <sheet name="cell_6" sheetId="5" r:id="rId5"/>
-    <sheet name="cell_7" sheetId="6" r:id="rId6"/>
-    <sheet name="cell_8" sheetId="7" r:id="rId7"/>
-    <sheet name="cell_9" sheetId="8" r:id="rId8"/>
-    <sheet name="cell_10" sheetId="9" r:id="rId9"/>
-    <sheet name="cell_11" sheetId="10" r:id="rId10"/>
-    <sheet name="cell_12" sheetId="11" r:id="rId11"/>
-    <sheet name="cell_13" sheetId="12" r:id="rId12"/>
-    <sheet name="cell_14" sheetId="13" r:id="rId13"/>
-    <sheet name="cell_15" sheetId="14" r:id="rId14"/>
+    <sheet name="cell_4" sheetId="4" r:id="rId4"/>
+    <sheet name="cell_5" sheetId="6" r:id="rId5"/>
+    <sheet name="cell_6" sheetId="8" r:id="rId6"/>
+    <sheet name="cell_7" sheetId="9" r:id="rId7"/>
+    <sheet name="cell_8" sheetId="10" r:id="rId8"/>
+    <sheet name="cell_9" sheetId="11" r:id="rId9"/>
+    <sheet name="cell_10" sheetId="12" r:id="rId10"/>
+    <sheet name="cell_11" sheetId="13" r:id="rId11"/>
+    <sheet name="cell_12" sheetId="14" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="195">
   <si>
     <t>Time</t>
   </si>
@@ -159,63 +157,6 @@
     <t>2.0974235982286475</t>
   </si>
   <si>
-    <t>1.2905973348410456</t>
-  </si>
-  <si>
-    <t>1.1263771168937977</t>
-  </si>
-  <si>
-    <t>1.0176871523684703</t>
-  </si>
-  <si>
-    <t>1.050730249606433</t>
-  </si>
-  <si>
-    <t>1.036526810488236</t>
-  </si>
-  <si>
-    <t>1.0679531158670361</t>
-  </si>
-  <si>
-    <t>1.0390722595360908</t>
-  </si>
-  <si>
-    <t>1.2094394553936683</t>
-  </si>
-  <si>
-    <t>1.139395600229344</t>
-  </si>
-  <si>
-    <t>1.0534030591317958</t>
-  </si>
-  <si>
-    <t>1.1162119137397983</t>
-  </si>
-  <si>
-    <t>0.13780709785946696</t>
-  </si>
-  <si>
-    <t>1.8509953187487467</t>
-  </si>
-  <si>
-    <t>1.7949084537476485</t>
-  </si>
-  <si>
-    <t>1.7924458897735747</t>
-  </si>
-  <si>
-    <t>1.7338105357327942</t>
-  </si>
-  <si>
-    <t>1.6698092416751278</t>
-  </si>
-  <si>
-    <t>1.6403044233017203</t>
-  </si>
-  <si>
-    <t>1.774593847837225</t>
-  </si>
-  <si>
     <t>1.9684243183170258</t>
   </si>
   <si>
@@ -274,69 +215,6 @@
   </si>
   <si>
     <t>1.48648959426869</t>
-  </si>
-  <si>
-    <t>2.677945044588987</t>
-  </si>
-  <si>
-    <t>2.6446240487107397</t>
-  </si>
-  <si>
-    <t>2.6456981621537334</t>
-  </si>
-  <si>
-    <t>2.4468543773930893</t>
-  </si>
-  <si>
-    <t>2.394150935380659</t>
-  </si>
-  <si>
-    <t>2.440332730723516</t>
-  </si>
-  <si>
-    <t>2.4644650810528015</t>
-  </si>
-  <si>
-    <t>2.389149587806643</t>
-  </si>
-  <si>
-    <t>2.5012361885189502</t>
-  </si>
-  <si>
-    <t>2.356194490192345</t>
-  </si>
-  <si>
-    <t>2.3224993828463285</t>
-  </si>
-  <si>
-    <t>2.323239392578047</t>
-  </si>
-  <si>
-    <t>2.4410962836420667</t>
-  </si>
-  <si>
-    <t>2.457883341955422</t>
-  </si>
-  <si>
-    <t>2.479377152333621</t>
-  </si>
-  <si>
-    <t>2.4691141509449475</t>
-  </si>
-  <si>
-    <t>2.325276510629302</t>
-  </si>
-  <si>
-    <t>2.441096283642066</t>
-  </si>
-  <si>
-    <t>2.4646778017473165</t>
-  </si>
-  <si>
-    <t>2.5010069884312833</t>
-  </si>
-  <si>
-    <t>2.709184878019255</t>
   </si>
   <si>
     <t>2.2531128816696446</t>
@@ -1373,988 +1251,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:E34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C2">
-        <v>-2.2135737945814559E-15</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>9.7301263520395906</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C3">
-        <v>0.46059552816701022</v>
-      </c>
-      <c r="D3">
-        <v>-0.7661829305157476</v>
-      </c>
-      <c r="E3">
-        <v>8.7101406360077132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>44</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4">
-        <v>1.159810609261384</v>
-      </c>
-      <c r="D4">
-        <v>-1.120837386420924</v>
-      </c>
-      <c r="E4">
-        <v>8.7940882470272808</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>66</v>
-      </c>
-      <c r="B5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C5">
-        <v>1.080950936590064</v>
-      </c>
-      <c r="D5">
-        <v>-1.3778807253786229</v>
-      </c>
-      <c r="E5">
-        <v>8.6901230499110529</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>88</v>
-      </c>
-      <c r="B6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C6">
-        <v>0.82679853444841034</v>
-      </c>
-      <c r="D6">
-        <v>-2.016709153957692</v>
-      </c>
-      <c r="E6">
-        <v>8.1731005123068474</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>110</v>
-      </c>
-      <c r="B7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C7">
-        <v>0.66975483256232837</v>
-      </c>
-      <c r="D7">
-        <v>-2.5674427877812809</v>
-      </c>
-      <c r="E7">
-        <v>8.4668066342502151</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>132</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8">
-        <v>0.56307410745811182</v>
-      </c>
-      <c r="D8">
-        <v>-2.966119763993782</v>
-      </c>
-      <c r="E8">
-        <v>8.631683438092999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>154</v>
-      </c>
-      <c r="B9" t="s">
-        <v>143</v>
-      </c>
-      <c r="C9">
-        <v>0.43058606470433203</v>
-      </c>
-      <c r="D9">
-        <v>-3.279994652161891</v>
-      </c>
-      <c r="E9">
-        <v>8.4822195231620494</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>176</v>
-      </c>
-      <c r="B10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C10">
-        <v>0.25345178823669412</v>
-      </c>
-      <c r="D10">
-        <v>-4.2171390901575396</v>
-      </c>
-      <c r="E10">
-        <v>9.3432068187072019</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>198</v>
-      </c>
-      <c r="B11" t="s">
-        <v>145</v>
-      </c>
-      <c r="C11">
-        <v>0.1918731027761828</v>
-      </c>
-      <c r="D11">
-        <v>-4.3688048179312418</v>
-      </c>
-      <c r="E11">
-        <v>8.3097960596951577</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>220</v>
-      </c>
-      <c r="B12" t="s">
-        <v>146</v>
-      </c>
-      <c r="C12">
-        <v>0.33078519580541382</v>
-      </c>
-      <c r="D12">
-        <v>-5.1076085806553237</v>
-      </c>
-      <c r="E12">
-        <v>8.6819777220713164</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>242</v>
-      </c>
-      <c r="B13" t="s">
-        <v>147</v>
-      </c>
-      <c r="C13">
-        <v>0.62184168645083171</v>
-      </c>
-      <c r="D13">
-        <v>-5.8462764216987573</v>
-      </c>
-      <c r="E13">
-        <v>8.532756969632759</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>264</v>
-      </c>
-      <c r="B14" t="s">
-        <v>148</v>
-      </c>
-      <c r="C14">
-        <v>0.56629703054950331</v>
-      </c>
-      <c r="D14">
-        <v>-6.3989165650140869</v>
-      </c>
-      <c r="E14">
-        <v>8.6562384061211759</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>286</v>
-      </c>
-      <c r="B15" t="s">
-        <v>149</v>
-      </c>
-      <c r="C15">
-        <v>0.85045112298604109</v>
-      </c>
-      <c r="D15">
-        <v>-6.7937424338080623</v>
-      </c>
-      <c r="E15">
-        <v>8.2743540699402658</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>308</v>
-      </c>
-      <c r="B16" t="s">
-        <v>150</v>
-      </c>
-      <c r="C16">
-        <v>0.49307311169050422</v>
-      </c>
-      <c r="D16">
-        <v>-7.3242801615210498</v>
-      </c>
-      <c r="E16">
-        <v>8.1651059549528462</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>330</v>
-      </c>
-      <c r="B17" t="s">
-        <v>151</v>
-      </c>
-      <c r="C17">
-        <v>0.62475099667021561</v>
-      </c>
-      <c r="D17">
-        <v>-7.2388666523872747</v>
-      </c>
-      <c r="E17">
-        <v>7.9242660420533424</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>352</v>
-      </c>
-      <c r="B18" t="s">
-        <v>152</v>
-      </c>
-      <c r="C18">
-        <v>0.56641182357692799</v>
-      </c>
-      <c r="D18">
-        <v>-7.4530937011379423</v>
-      </c>
-      <c r="E18">
-        <v>7.8421113066563866</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>374</v>
-      </c>
-      <c r="B19" t="s">
-        <v>153</v>
-      </c>
-      <c r="C19">
-        <v>1.1914962865043459</v>
-      </c>
-      <c r="D19">
-        <v>-7.4056143750111207</v>
-      </c>
-      <c r="E19">
-        <v>8.9139502992385022</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>396</v>
-      </c>
-      <c r="B20" t="s">
-        <v>154</v>
-      </c>
-      <c r="C20">
-        <v>1.210250448318638</v>
-      </c>
-      <c r="D20">
-        <v>-7.410668216090798</v>
-      </c>
-      <c r="E20">
-        <v>8.6618950518985933</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>418</v>
-      </c>
-      <c r="B21" t="s">
-        <v>155</v>
-      </c>
-      <c r="C21">
-        <v>0.89354046472503079</v>
-      </c>
-      <c r="D21">
-        <v>-7.6190742028893261</v>
-      </c>
-      <c r="E21">
-        <v>8.8188081503143216</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>440</v>
-      </c>
-      <c r="B22" t="s">
-        <v>156</v>
-      </c>
-      <c r="C22">
-        <v>1.5871819855397289</v>
-      </c>
-      <c r="D22">
-        <v>-7.9133992717748862</v>
-      </c>
-      <c r="E22">
-        <v>8.5282910604115543</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>462</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23">
-        <v>1.441615292419961</v>
-      </c>
-      <c r="D23">
-        <v>-7.6077514885181472</v>
-      </c>
-      <c r="E23">
-        <v>8.5116828828963325</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>484</v>
-      </c>
-      <c r="B24" t="s">
-        <v>157</v>
-      </c>
-      <c r="C24">
-        <v>1.6865796123267689</v>
-      </c>
-      <c r="D24">
-        <v>-7.4446979695653939</v>
-      </c>
-      <c r="E24">
-        <v>8.5148792789994268</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>506</v>
-      </c>
-      <c r="B25" t="s">
-        <v>158</v>
-      </c>
-      <c r="C25">
-        <v>1.526749835160381</v>
-      </c>
-      <c r="D25">
-        <v>-7.3510912743721972</v>
-      </c>
-      <c r="E25">
-        <v>8.0766435627865807</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>528</v>
-      </c>
-      <c r="B26" t="s">
-        <v>159</v>
-      </c>
-      <c r="C26">
-        <v>1.743848652180594</v>
-      </c>
-      <c r="D26">
-        <v>-7.1820706671547878</v>
-      </c>
-      <c r="E26">
-        <v>7.8386405778709216</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>550</v>
-      </c>
-      <c r="B27" t="s">
-        <v>160</v>
-      </c>
-      <c r="C27">
-        <v>1.827895294698253</v>
-      </c>
-      <c r="D27">
-        <v>-6.9291226164780548</v>
-      </c>
-      <c r="E27">
-        <v>7.7380155960734562</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>572</v>
-      </c>
-      <c r="B28" t="s">
-        <v>161</v>
-      </c>
-      <c r="C28">
-        <v>1.687619086846917</v>
-      </c>
-      <c r="D28">
-        <v>-7.1904096785637277</v>
-      </c>
-      <c r="E28">
-        <v>7.7773022378483914</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>594</v>
-      </c>
-      <c r="B29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C29">
-        <v>1.561275149604707</v>
-      </c>
-      <c r="D29">
-        <v>-7.2070410799652693</v>
-      </c>
-      <c r="E29">
-        <v>7.7653969462761019</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>616</v>
-      </c>
-      <c r="B30" t="s">
-        <v>163</v>
-      </c>
-      <c r="C30">
-        <v>1.345895035057171</v>
-      </c>
-      <c r="D30">
-        <v>-7.4961513434246108</v>
-      </c>
-      <c r="E30">
-        <v>8.0442342286662516</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>638</v>
-      </c>
-      <c r="B31" t="s">
-        <v>164</v>
-      </c>
-      <c r="C31">
-        <v>1.396011666690204</v>
-      </c>
-      <c r="D31">
-        <v>-7.5536936611966121</v>
-      </c>
-      <c r="E31">
-        <v>8.1008654739042569</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>660</v>
-      </c>
-      <c r="B32" t="s">
-        <v>133</v>
-      </c>
-      <c r="C32">
-        <v>1.5270880053143649</v>
-      </c>
-      <c r="D32">
-        <v>-7.5534381870865914</v>
-      </c>
-      <c r="E32">
-        <v>8.0665296335829488</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>682</v>
-      </c>
-      <c r="B33" t="s">
-        <v>165</v>
-      </c>
-      <c r="C33">
-        <v>1.918830278320959</v>
-      </c>
-      <c r="D33">
-        <v>-7.7858757415501536</v>
-      </c>
-      <c r="E33">
-        <v>8.5027265812531461</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>704</v>
-      </c>
-      <c r="B34">
-        <v>1.3191198486573141</v>
-      </c>
-      <c r="C34">
-        <v>2.3067427520560519</v>
-      </c>
-      <c r="D34">
-        <v>-7.6230836179573398</v>
-      </c>
-      <c r="E34">
-        <v>8.6140110638753171</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:E22"/>
-  <sheetViews>
-    <sheetView zoomScale="180" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C2">
-        <v>-2.3633014255053661E-15</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>9.7645448981977783</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>28</v>
-      </c>
-      <c r="B3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C3">
-        <v>-0.45907580265291331</v>
-      </c>
-      <c r="D3">
-        <v>-0.54835438886943455</v>
-      </c>
-      <c r="E3">
-        <v>8.8319991928266486</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>56</v>
-      </c>
-      <c r="B4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C4">
-        <v>-0.43327808584380217</v>
-      </c>
-      <c r="D4">
-        <v>-9.8037946083636113E-2</v>
-      </c>
-      <c r="E4">
-        <v>8.5818098308688331</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>84</v>
-      </c>
-      <c r="B5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C5">
-        <v>-0.81007127321585315</v>
-      </c>
-      <c r="D5">
-        <v>-0.42077059606200329</v>
-      </c>
-      <c r="E5">
-        <v>8.8559905423286231</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>112</v>
-      </c>
-      <c r="B6" t="s">
-        <v>170</v>
-      </c>
-      <c r="C6">
-        <v>-1.250189914825897</v>
-      </c>
-      <c r="D6">
-        <v>0.15060494687716139</v>
-      </c>
-      <c r="E6">
-        <v>9.3592049528920658</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>140</v>
-      </c>
-      <c r="B7" t="s">
-        <v>171</v>
-      </c>
-      <c r="C7">
-        <v>0.50058364569220604</v>
-      </c>
-      <c r="D7">
-        <v>-2.2389934557322868</v>
-      </c>
-      <c r="E7">
-        <v>8.8422034701862042</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>168</v>
-      </c>
-      <c r="B8" t="s">
-        <v>172</v>
-      </c>
-      <c r="C8">
-        <v>0.38214295624774708</v>
-      </c>
-      <c r="D8">
-        <v>-1.655111008303628</v>
-      </c>
-      <c r="E8">
-        <v>8.6687289072669831</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>196</v>
-      </c>
-      <c r="B9" t="s">
-        <v>173</v>
-      </c>
-      <c r="C9">
-        <v>0.37664688059708168</v>
-      </c>
-      <c r="D9">
-        <v>-1.243769656985547</v>
-      </c>
-      <c r="E9">
-        <v>8.9954510605263458</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>224</v>
-      </c>
-      <c r="B10" t="s">
-        <v>174</v>
-      </c>
-      <c r="C10">
-        <v>3.9437157143169602E-2</v>
-      </c>
-      <c r="D10">
-        <v>-1.607822171369709</v>
-      </c>
-      <c r="E10">
-        <v>8.5939573551533393</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>252</v>
-      </c>
-      <c r="B11" t="s">
-        <v>175</v>
-      </c>
-      <c r="C11">
-        <v>0.35419597420797572</v>
-      </c>
-      <c r="D11">
-        <v>-1.697838686539584</v>
-      </c>
-      <c r="E11">
-        <v>9.0719811520025768</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>280</v>
-      </c>
-      <c r="B12" t="s">
-        <v>176</v>
-      </c>
-      <c r="C12">
-        <v>1.8322993430939589</v>
-      </c>
-      <c r="D12">
-        <v>-2.8412698194948289</v>
-      </c>
-      <c r="E12">
-        <v>8.7852288823168401</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>308</v>
-      </c>
-      <c r="B13" t="s">
-        <v>177</v>
-      </c>
-      <c r="C13">
-        <v>0.67545307762116569</v>
-      </c>
-      <c r="D13">
-        <v>-1.8724004905197451</v>
-      </c>
-      <c r="E13">
-        <v>8.9891588844933068</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>336</v>
-      </c>
-      <c r="B14" t="s">
-        <v>178</v>
-      </c>
-      <c r="C14">
-        <v>0.42950822136700051</v>
-      </c>
-      <c r="D14">
-        <v>-2.28309880467972</v>
-      </c>
-      <c r="E14">
-        <v>9.2878985757403427</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>364</v>
-      </c>
-      <c r="B15" t="s">
-        <v>179</v>
-      </c>
-      <c r="C15">
-        <v>0.5744411481519156</v>
-      </c>
-      <c r="D15">
-        <v>-2.9399785414292241</v>
-      </c>
-      <c r="E15">
-        <v>10.044465706061191</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>392</v>
-      </c>
-      <c r="B16" t="s">
-        <v>180</v>
-      </c>
-      <c r="C16">
-        <v>4.9712652726904498E-2</v>
-      </c>
-      <c r="D16">
-        <v>-2.7702280654061382</v>
-      </c>
-      <c r="E16">
-        <v>9.6156485798723406</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>420</v>
-      </c>
-      <c r="B17" t="s">
-        <v>181</v>
-      </c>
-      <c r="C17">
-        <v>0.1462487897623789</v>
-      </c>
-      <c r="D17">
-        <v>-2.8889234798861252</v>
-      </c>
-      <c r="E17">
-        <v>9.1991415982240223</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>448</v>
-      </c>
-      <c r="B18" t="s">
-        <v>182</v>
-      </c>
-      <c r="C18">
-        <v>0.28893739617438602</v>
-      </c>
-      <c r="D18">
-        <v>-2.6331294646275292</v>
-      </c>
-      <c r="E18">
-        <v>9.2020242874674523</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>476</v>
-      </c>
-      <c r="B19" t="s">
-        <v>183</v>
-      </c>
-      <c r="C19">
-        <v>0.3005051593053501</v>
-      </c>
-      <c r="D19">
-        <v>-2.5491367960576738</v>
-      </c>
-      <c r="E19">
-        <v>9.0282171939244336</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>504</v>
-      </c>
-      <c r="B20" t="s">
-        <v>184</v>
-      </c>
-      <c r="C20">
-        <v>0.12775118106876679</v>
-      </c>
-      <c r="D20">
-        <v>-2.5039266348430762</v>
-      </c>
-      <c r="E20">
-        <v>9.9808924996249271</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>532</v>
-      </c>
-      <c r="B21" t="s">
-        <v>185</v>
-      </c>
-      <c r="C21">
-        <v>-0.27018708484714188</v>
-      </c>
-      <c r="D21">
-        <v>-2.7064715045996901</v>
-      </c>
-      <c r="E21">
-        <v>9.8136749940084407</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>560</v>
-      </c>
-      <c r="B22">
-        <v>2.056346924699719</v>
-      </c>
-      <c r="C22">
-        <v>0.31337376269948602</v>
-      </c>
-      <c r="D22">
-        <v>-2.3183535084423759</v>
-      </c>
-      <c r="E22">
-        <v>10.403324529389151</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E26"/>
   <sheetViews>
@@ -2386,7 +1282,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="C2">
         <v>3.0119846244251019E-15</v>
@@ -2403,7 +1299,7 @@
         <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="C3">
         <v>-0.1154589022854724</v>
@@ -2420,7 +1316,7 @@
         <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
       <c r="C4">
         <v>-0.32009419718853233</v>
@@ -2437,7 +1333,7 @@
         <v>99</v>
       </c>
       <c r="B5" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="C5">
         <v>-0.49273335736764667</v>
@@ -2454,7 +1350,7 @@
         <v>132</v>
       </c>
       <c r="B6" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="C6">
         <v>-0.19099956626413861</v>
@@ -2471,7 +1367,7 @@
         <v>165</v>
       </c>
       <c r="B7" t="s">
-        <v>191</v>
+        <v>151</v>
       </c>
       <c r="C7">
         <v>-0.70265165867882307</v>
@@ -2488,7 +1384,7 @@
         <v>198</v>
       </c>
       <c r="B8" t="s">
-        <v>192</v>
+        <v>152</v>
       </c>
       <c r="C8">
         <v>-0.75894035218161926</v>
@@ -2505,7 +1401,7 @@
         <v>231</v>
       </c>
       <c r="B9" t="s">
-        <v>193</v>
+        <v>153</v>
       </c>
       <c r="C9">
         <v>-0.72718242615426454</v>
@@ -2522,7 +1418,7 @@
         <v>264</v>
       </c>
       <c r="B10" t="s">
-        <v>194</v>
+        <v>154</v>
       </c>
       <c r="C10">
         <v>-1.0732564583701949</v>
@@ -2539,7 +1435,7 @@
         <v>297</v>
       </c>
       <c r="B11" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="C11">
         <v>-0.64337499576837787</v>
@@ -2556,7 +1452,7 @@
         <v>330</v>
       </c>
       <c r="B12" t="s">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c r="C12">
         <v>-0.76880177751864764</v>
@@ -2573,7 +1469,7 @@
         <v>363</v>
       </c>
       <c r="B13" t="s">
-        <v>197</v>
+        <v>157</v>
       </c>
       <c r="C13">
         <v>-0.78529721832016219</v>
@@ -2590,7 +1486,7 @@
         <v>396</v>
       </c>
       <c r="B14" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="C14">
         <v>-0.40956962462832108</v>
@@ -2607,7 +1503,7 @@
         <v>429</v>
       </c>
       <c r="B15" t="s">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="C15">
         <v>-0.46443911168592739</v>
@@ -2624,7 +1520,7 @@
         <v>462</v>
       </c>
       <c r="B16" t="s">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="C16">
         <v>-0.69983429447690604</v>
@@ -2658,7 +1554,7 @@
         <v>528</v>
       </c>
       <c r="B18" t="s">
-        <v>201</v>
+        <v>161</v>
       </c>
       <c r="C18">
         <v>-1.3992406762061069</v>
@@ -2675,7 +1571,7 @@
         <v>561</v>
       </c>
       <c r="B19" t="s">
-        <v>202</v>
+        <v>162</v>
       </c>
       <c r="C19">
         <v>-1.2118930767602101</v>
@@ -2692,7 +1588,7 @@
         <v>594</v>
       </c>
       <c r="B20" t="s">
-        <v>203</v>
+        <v>163</v>
       </c>
       <c r="C20">
         <v>-0.84097592670986865</v>
@@ -2709,7 +1605,7 @@
         <v>627</v>
       </c>
       <c r="B21" t="s">
-        <v>204</v>
+        <v>164</v>
       </c>
       <c r="C21">
         <v>-1.4627901015138021</v>
@@ -2726,7 +1622,7 @@
         <v>660</v>
       </c>
       <c r="B22" t="s">
-        <v>205</v>
+        <v>165</v>
       </c>
       <c r="C22">
         <v>-1.2262270681186631</v>
@@ -2743,7 +1639,7 @@
         <v>693</v>
       </c>
       <c r="B23" t="s">
-        <v>206</v>
+        <v>166</v>
       </c>
       <c r="C23">
         <v>-1.082053887831594</v>
@@ -2760,7 +1656,7 @@
         <v>726</v>
       </c>
       <c r="B24" t="s">
-        <v>207</v>
+        <v>167</v>
       </c>
       <c r="C24">
         <v>-0.9997822476267082</v>
@@ -2777,7 +1673,7 @@
         <v>759</v>
       </c>
       <c r="B25" t="s">
-        <v>208</v>
+        <v>168</v>
       </c>
       <c r="C25">
         <v>-0.61832255475411502</v>
@@ -2811,11 +1707,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="173" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScale="173" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:H2"/>
     </sheetView>
   </sheetViews>
@@ -2860,7 +1756,7 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>209</v>
+        <v>169</v>
       </c>
       <c r="C3">
         <v>-0.2279119114941339</v>
@@ -2877,7 +1773,7 @@
         <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="C4">
         <v>-0.12936140776483129</v>
@@ -2894,7 +1790,7 @@
         <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>211</v>
+        <v>171</v>
       </c>
       <c r="C5">
         <v>0.25904603780146263</v>
@@ -2911,7 +1807,7 @@
         <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="C6">
         <v>0.62001282986438366</v>
@@ -2928,7 +1824,7 @@
         <v>105</v>
       </c>
       <c r="B7" t="s">
-        <v>213</v>
+        <v>173</v>
       </c>
       <c r="C7">
         <v>0.20971200852873481</v>
@@ -2945,7 +1841,7 @@
         <v>126</v>
       </c>
       <c r="B8" t="s">
-        <v>214</v>
+        <v>174</v>
       </c>
       <c r="C8">
         <v>-1.9770022170895341E-2</v>
@@ -2962,7 +1858,7 @@
         <v>147</v>
       </c>
       <c r="B9" t="s">
-        <v>215</v>
+        <v>175</v>
       </c>
       <c r="C9">
         <v>-0.21939484433964829</v>
@@ -2979,7 +1875,7 @@
         <v>168</v>
       </c>
       <c r="B10" t="s">
-        <v>216</v>
+        <v>176</v>
       </c>
       <c r="C10">
         <v>-0.29271363854022131</v>
@@ -2996,7 +1892,7 @@
         <v>189</v>
       </c>
       <c r="B11" t="s">
-        <v>217</v>
+        <v>177</v>
       </c>
       <c r="C11">
         <v>-0.22961117558307559</v>
@@ -3013,7 +1909,7 @@
         <v>210</v>
       </c>
       <c r="B12" t="s">
-        <v>218</v>
+        <v>178</v>
       </c>
       <c r="C12">
         <v>2.2137630277071589</v>
@@ -3030,7 +1926,7 @@
         <v>231</v>
       </c>
       <c r="B13" t="s">
-        <v>219</v>
+        <v>179</v>
       </c>
       <c r="C13">
         <v>0.1437492443155442</v>
@@ -3047,7 +1943,7 @@
         <v>252</v>
       </c>
       <c r="B14" t="s">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="C14">
         <v>-0.1265691503005866</v>
@@ -3064,7 +1960,7 @@
         <v>273</v>
       </c>
       <c r="B15" t="s">
-        <v>221</v>
+        <v>181</v>
       </c>
       <c r="C15">
         <v>-0.22242987719661439</v>
@@ -3081,7 +1977,7 @@
         <v>294</v>
       </c>
       <c r="B16" t="s">
-        <v>211</v>
+        <v>171</v>
       </c>
       <c r="C16">
         <v>-9.2102815534112009E-2</v>
@@ -3098,7 +1994,7 @@
         <v>315</v>
       </c>
       <c r="B17" t="s">
-        <v>222</v>
+        <v>182</v>
       </c>
       <c r="C17">
         <v>-0.2095523047885646</v>
@@ -3115,7 +2011,7 @@
         <v>336</v>
       </c>
       <c r="B18" t="s">
-        <v>223</v>
+        <v>183</v>
       </c>
       <c r="C18">
         <v>0.18567104531220099</v>
@@ -3132,7 +2028,7 @@
         <v>357</v>
       </c>
       <c r="B19" t="s">
-        <v>224</v>
+        <v>184</v>
       </c>
       <c r="C19">
         <v>0.32801439864016207</v>
@@ -3149,7 +2045,7 @@
         <v>378</v>
       </c>
       <c r="B20" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="C20">
         <v>0.77173235876580959</v>
@@ -3166,7 +2062,7 @@
         <v>399</v>
       </c>
       <c r="B21" t="s">
-        <v>226</v>
+        <v>186</v>
       </c>
       <c r="C21">
         <v>0.81801791313315386</v>
@@ -3183,7 +2079,7 @@
         <v>420</v>
       </c>
       <c r="B22" t="s">
-        <v>227</v>
+        <v>187</v>
       </c>
       <c r="C22">
         <v>1.6918241933341029</v>
@@ -3200,7 +2096,7 @@
         <v>441</v>
       </c>
       <c r="B23" t="s">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="C23">
         <v>1.6938083884994031</v>
@@ -3217,7 +2113,7 @@
         <v>462</v>
       </c>
       <c r="B24" t="s">
-        <v>229</v>
+        <v>189</v>
       </c>
       <c r="C24">
         <v>1.966609187529115</v>
@@ -3234,7 +2130,7 @@
         <v>483</v>
       </c>
       <c r="B25" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="C25">
         <v>2.2054872205735929</v>
@@ -3251,7 +2147,7 @@
         <v>504</v>
       </c>
       <c r="B26" t="s">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="C26">
         <v>2.1689036896531451</v>
@@ -3268,7 +2164,7 @@
         <v>525</v>
       </c>
       <c r="B27" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="C27">
         <v>2.2872199974011251</v>
@@ -3285,7 +2181,7 @@
         <v>546</v>
       </c>
       <c r="B28" t="s">
-        <v>233</v>
+        <v>193</v>
       </c>
       <c r="C28">
         <v>2.9549071399471338</v>
@@ -3302,7 +2198,7 @@
         <v>567</v>
       </c>
       <c r="B29" t="s">
-        <v>234</v>
+        <v>194</v>
       </c>
       <c r="C29">
         <v>2.4885491973101579</v>
@@ -3336,12 +2232,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="272" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="272" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4299,359 +3195,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2">
-        <v>-3.4114847626645681E-15</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>8.6846906069383465</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3">
-        <v>-4.0837892380842192E-2</v>
-      </c>
-      <c r="D3">
-        <v>0.1140402680735382</v>
-      </c>
-      <c r="E3">
-        <v>8.3794017755228865</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4">
-        <v>-6.0769106052163319E-2</v>
-      </c>
-      <c r="D4">
-        <v>-0.1168910911192354</v>
-      </c>
-      <c r="E4">
-        <v>8.1149314998266426</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5">
-        <v>-6.2859291731522618E-2</v>
-      </c>
-      <c r="D5">
-        <v>0.19824969497393041</v>
-      </c>
-      <c r="E5">
-        <v>8.095360270609893</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6">
-        <v>-0.34166730815977342</v>
-      </c>
-      <c r="D6">
-        <v>0.1116590440136566</v>
-      </c>
-      <c r="E6">
-        <v>8.3718691470977156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7">
-        <v>-0.85606190583425645</v>
-      </c>
-      <c r="D7">
-        <v>1.354013942031704E-3</v>
-      </c>
-      <c r="E7">
-        <v>8.2230559185750316</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>30</v>
-      </c>
-      <c r="B8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8">
-        <v>-0.70880813275289922</v>
-      </c>
-      <c r="D8">
-        <v>-5.2591701558597007E-2</v>
-      </c>
-      <c r="E8">
-        <v>8.2896457579851042</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>35</v>
-      </c>
-      <c r="B9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9">
-        <v>-0.69377890975935741</v>
-      </c>
-      <c r="D9">
-        <v>3.1900173658339963E-2</v>
-      </c>
-      <c r="E9">
-        <v>8.1519431640715361</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>40</v>
-      </c>
-      <c r="B10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10">
-        <v>-1.218481430871889</v>
-      </c>
-      <c r="D10">
-        <v>0.13616080585211021</v>
-      </c>
-      <c r="E10">
-        <v>8.3284784317133713</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>45</v>
-      </c>
-      <c r="B11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11">
-        <v>-1.3948237545591411</v>
-      </c>
-      <c r="D11">
-        <v>-0.21022263585528961</v>
-      </c>
-      <c r="E11">
-        <v>8.4975311407423746</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>50</v>
-      </c>
-      <c r="B12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12">
-        <v>-1.581548797793171</v>
-      </c>
-      <c r="D12">
-        <v>-0.64268827054898003</v>
-      </c>
-      <c r="E12">
-        <v>8.8884075621025413</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>55</v>
-      </c>
-      <c r="B13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13">
-        <v>-1.5232311123833571</v>
-      </c>
-      <c r="D13">
-        <v>-1.013610477381778</v>
-      </c>
-      <c r="E13">
-        <v>8.3046362844875876</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>60</v>
-      </c>
-      <c r="B14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14">
-        <v>-1.47074222096451</v>
-      </c>
-      <c r="D14">
-        <v>-1.656508030229414</v>
-      </c>
-      <c r="E14">
-        <v>8.6846906069383483</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>65</v>
-      </c>
-      <c r="B15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15">
-        <v>-1.359522549138301</v>
-      </c>
-      <c r="D15">
-        <v>-2.3829075430780948</v>
-      </c>
-      <c r="E15">
-        <v>8.3753134749974443</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>70</v>
-      </c>
-      <c r="B16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16">
-        <v>-1.102401638458905</v>
-      </c>
-      <c r="D16">
-        <v>-2.7034088845818922</v>
-      </c>
-      <c r="E16">
-        <v>8.739933207341295</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>75</v>
-      </c>
-      <c r="B17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17">
-        <v>-1.0992689257598489</v>
-      </c>
-      <c r="D17">
-        <v>-3.462491400331603</v>
-      </c>
-      <c r="E17">
-        <v>9.2491718706691639</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>80</v>
-      </c>
-      <c r="B18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18">
-        <v>-1.0757400356716129</v>
-      </c>
-      <c r="D18">
-        <v>-3.8580233374558932</v>
-      </c>
-      <c r="E18">
-        <v>9.1111329032218809</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>85</v>
-      </c>
-      <c r="B19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19">
-        <v>-1.352660741127091</v>
-      </c>
-      <c r="D19">
-        <v>-4.3569696521857049</v>
-      </c>
-      <c r="E19">
-        <v>9.509773741031033</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>90</v>
-      </c>
-      <c r="B20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20">
-        <v>-1.5088586570234219</v>
-      </c>
-      <c r="D20">
-        <v>-4.0416764969794823</v>
-      </c>
-      <c r="E20">
-        <v>9.1967925706934395</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E24"/>
   <sheetViews>
@@ -4683,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="C2">
         <v>4.8559871072110848E-15</v>
@@ -4700,7 +3243,7 @@
         <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="C3">
         <v>0.18021595643812949</v>
@@ -4717,7 +3260,7 @@
         <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="C4">
         <v>-0.35410025063072742</v>
@@ -4734,7 +3277,7 @@
         <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="C5">
         <v>-0.5084898615938428</v>
@@ -4751,7 +3294,7 @@
         <v>88</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="C6">
         <v>-0.68016492671593376</v>
@@ -4768,7 +3311,7 @@
         <v>110</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C7">
         <v>-0.56948621242246411</v>
@@ -4785,7 +3328,7 @@
         <v>132</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="C8">
         <v>-6.0192491959186828E-2</v>
@@ -4802,7 +3345,7 @@
         <v>154</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="C9">
         <v>-0.51563246899303739</v>
@@ -4819,7 +3362,7 @@
         <v>176</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="C10">
         <v>-0.34477259884481021</v>
@@ -4836,7 +3379,7 @@
         <v>198</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="C11">
         <v>0.28353426168662732</v>
@@ -4853,7 +3396,7 @@
         <v>220</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="C12">
         <v>9.8354986124424476E-2</v>
@@ -4870,7 +3413,7 @@
         <v>242</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="C13">
         <v>-0.37362059157626781</v>
@@ -4887,7 +3430,7 @@
         <v>264</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="C14">
         <v>-0.50274345031631973</v>
@@ -4904,7 +3447,7 @@
         <v>286</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="C15">
         <v>-0.40653670834120709</v>
@@ -4921,7 +3464,7 @@
         <v>308</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="C16">
         <v>8.7687088230224749E-3</v>
@@ -4938,7 +3481,7 @@
         <v>330</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="C17">
         <v>-4.2979183818125523E-2</v>
@@ -4955,7 +3498,7 @@
         <v>352</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="C18">
         <v>-0.39640656692891341</v>
@@ -4989,7 +3532,7 @@
         <v>396</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="C20">
         <v>-0.2334735294963764</v>
@@ -5006,7 +3549,7 @@
         <v>418</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="C21">
         <v>-7.4908907826673254E-2</v>
@@ -5023,7 +3566,7 @@
         <v>440</v>
       </c>
       <c r="B22" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="C22">
         <v>-0.1169004362022361</v>
@@ -5040,7 +3583,7 @@
         <v>462</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="C23">
         <v>-0.49479309501878399</v>
@@ -5074,394 +3617,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:E22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2">
-        <v>-8.9852950350854892E-15</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>7.5633144780181274</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3">
-        <v>0.36349821617772049</v>
-      </c>
-      <c r="D3">
-        <v>-0.22059424868163849</v>
-      </c>
-      <c r="E3">
-        <v>7.8284639512392697</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>50</v>
-      </c>
-      <c r="B4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4">
-        <v>0.55766451325806576</v>
-      </c>
-      <c r="D4">
-        <v>-0.15261200552237519</v>
-      </c>
-      <c r="E4">
-        <v>8.0891277945986104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>75</v>
-      </c>
-      <c r="B5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5">
-        <v>0.1572291653731698</v>
-      </c>
-      <c r="D5">
-        <v>-0.32442016787340539</v>
-      </c>
-      <c r="E5">
-        <v>7.2875922094431376</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>100</v>
-      </c>
-      <c r="B6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6">
-        <v>5.903935651930621E-2</v>
-      </c>
-      <c r="D6">
-        <v>-0.18513562053708721</v>
-      </c>
-      <c r="E6">
-        <v>6.5200986879466587</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>125</v>
-      </c>
-      <c r="B7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7">
-        <v>-0.13436204340042371</v>
-      </c>
-      <c r="D7">
-        <v>-0.69278902489393712</v>
-      </c>
-      <c r="E7">
-        <v>6.8695977607555623</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>150</v>
-      </c>
-      <c r="B8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8">
-        <v>0.2679834337048933</v>
-      </c>
-      <c r="D8">
-        <v>-0.40690864050067421</v>
-      </c>
-      <c r="E8">
-        <v>7.6322482833453806</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>175</v>
-      </c>
-      <c r="B9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9">
-        <v>-0.16175622885345611</v>
-      </c>
-      <c r="D9">
-        <v>-0.63308443664380287</v>
-      </c>
-      <c r="E9">
-        <v>7.5091611718558671</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>200</v>
-      </c>
-      <c r="B10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10">
-        <v>-8.8426884861498189E-2</v>
-      </c>
-      <c r="D10">
-        <v>-0.56067835391532073</v>
-      </c>
-      <c r="E10">
-        <v>7.4180271989316511</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>225</v>
-      </c>
-      <c r="B11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11">
-        <v>0.13161718567237049</v>
-      </c>
-      <c r="D11">
-        <v>-0.55540618767265904</v>
-      </c>
-      <c r="E11">
-        <v>7.5875573716591749</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>250</v>
-      </c>
-      <c r="B12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12">
-        <v>8.0927964619803019E-2</v>
-      </c>
-      <c r="D12">
-        <v>-0.16484620588567961</v>
-      </c>
-      <c r="E12">
-        <v>7.3443058446278879</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>275</v>
-      </c>
-      <c r="B13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13">
-        <v>7.9151865160735968E-2</v>
-      </c>
-      <c r="D13">
-        <v>-0.61238425060291424</v>
-      </c>
-      <c r="E13">
-        <v>7.5091611718558671</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>300</v>
-      </c>
-      <c r="B14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14">
-        <v>0.23123521428911761</v>
-      </c>
-      <c r="D14">
-        <v>-0.30314825242914772</v>
-      </c>
-      <c r="E14">
-        <v>7.7805296828945254</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>325</v>
-      </c>
-      <c r="B15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C15">
-        <v>5.6152136456880011E-2</v>
-      </c>
-      <c r="D15">
-        <v>-0.3609297079680463</v>
-      </c>
-      <c r="E15">
-        <v>8.1243673937908145</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>350</v>
-      </c>
-      <c r="B16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16">
-        <v>-0.14179460151422191</v>
-      </c>
-      <c r="D16">
-        <v>-0.42527658092715498</v>
-      </c>
-      <c r="E16">
-        <v>8.7258312902774904</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>375</v>
-      </c>
-      <c r="B17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17">
-        <v>-9.3382189300391855E-2</v>
-      </c>
-      <c r="D17">
-        <v>-0.51856685486692378</v>
-      </c>
-      <c r="E17">
-        <v>8.0511999221221462</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>400</v>
-      </c>
-      <c r="B18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C18">
-        <v>-0.17961507764105311</v>
-      </c>
-      <c r="D18">
-        <v>-0.37030169353381892</v>
-      </c>
-      <c r="E18">
-        <v>8.0037497934856496</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>425</v>
-      </c>
-      <c r="B19" t="s">
-        <v>93</v>
-      </c>
-      <c r="C19">
-        <v>-0.4699506331604128</v>
-      </c>
-      <c r="D19">
-        <v>-0.1255693910226568</v>
-      </c>
-      <c r="E19">
-        <v>7.7805296828945254</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>450</v>
-      </c>
-      <c r="B20" t="s">
-        <v>94</v>
-      </c>
-      <c r="C20">
-        <v>-0.50278681315254781</v>
-      </c>
-      <c r="D20">
-        <v>-0.5586234470993916</v>
-      </c>
-      <c r="E20">
-        <v>8.3790751965845924</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>475</v>
-      </c>
-      <c r="B21" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21">
-        <v>-0.26626420580381122</v>
-      </c>
-      <c r="D21">
-        <v>-0.47833709946153857</v>
-      </c>
-      <c r="E21">
-        <v>8.0011998810989002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>500</v>
-      </c>
-      <c r="B22" t="s">
-        <v>96</v>
-      </c>
-      <c r="C22">
-        <v>-0.67403259931062776</v>
-      </c>
-      <c r="D22">
-        <v>-8.2305608505571282E-2</v>
-      </c>
-      <c r="E22">
-        <v>8.3498003878490774</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -5493,7 +3649,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="C2">
         <v>3.018892626428517E-15</v>
@@ -5510,7 +3666,7 @@
         <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="C3">
         <v>-1.565301983726235</v>
@@ -5527,7 +3683,7 @@
         <v>116</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="C4">
         <v>-1.940424974063514</v>
@@ -5544,7 +3700,7 @@
         <v>174</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="C5">
         <v>-2.0621344685432321</v>
@@ -5561,7 +3717,7 @@
         <v>232</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="C6">
         <v>-2.5646546944459812</v>
@@ -5578,7 +3734,7 @@
         <v>290</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="C7">
         <v>-2.7695641947266472</v>
@@ -5595,7 +3751,7 @@
         <v>348</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="C8">
         <v>-2.889496139363577</v>
@@ -5612,7 +3768,7 @@
         <v>406</v>
       </c>
       <c r="B9" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="C9">
         <v>-3.1102365601958208</v>
@@ -5629,7 +3785,7 @@
         <v>464</v>
       </c>
       <c r="B10" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="C10">
         <v>-2.796023985914101</v>
@@ -5663,7 +3819,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E38"/>
   <sheetViews>
@@ -5695,7 +3851,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="C2">
         <v>5.1976541286785211E-15</v>
@@ -5712,7 +3868,7 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="C3">
         <v>7.8392317739754733E-2</v>
@@ -5729,7 +3885,7 @@
         <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="C4">
         <v>-1.1511108434202901E-3</v>
@@ -5746,7 +3902,7 @@
         <v>69</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="C5">
         <v>-4.6708744215147993E-2</v>
@@ -5763,7 +3919,7 @@
         <v>92</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="C6">
         <v>-8.7845964936652046E-2</v>
@@ -5780,7 +3936,7 @@
         <v>115</v>
       </c>
       <c r="B7" t="s">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="C7">
         <v>0.127893514468852</v>
@@ -5797,7 +3953,7 @@
         <v>138</v>
       </c>
       <c r="B8" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="C8">
         <v>-0.18615848440411209</v>
@@ -5814,7 +3970,7 @@
         <v>161</v>
       </c>
       <c r="B9" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="C9">
         <v>-4.6571608362994859E-3</v>
@@ -5831,7 +3987,7 @@
         <v>184</v>
       </c>
       <c r="B10" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="C10">
         <v>-3.1112576273080009E-2</v>
@@ -5848,7 +4004,7 @@
         <v>207</v>
       </c>
       <c r="B11" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="C11">
         <v>0.28369783027122558</v>
@@ -5865,7 +4021,7 @@
         <v>230</v>
       </c>
       <c r="B12" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="C12">
         <v>-0.2393431237347215</v>
@@ -5882,7 +4038,7 @@
         <v>253</v>
       </c>
       <c r="B13" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="C13">
         <v>0.24318674668475321</v>
@@ -5899,7 +4055,7 @@
         <v>276</v>
       </c>
       <c r="B14" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="C14">
         <v>0.30944991929892712</v>
@@ -5916,7 +4072,7 @@
         <v>299</v>
       </c>
       <c r="B15" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="C15">
         <v>-4.642527675071282E-2</v>
@@ -5933,7 +4089,7 @@
         <v>322</v>
       </c>
       <c r="B16" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="C16">
         <v>-4.3583009895656583E-2</v>
@@ -5950,7 +4106,7 @@
         <v>345</v>
       </c>
       <c r="B17" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="C17">
         <v>-0.35350134827415242</v>
@@ -5984,7 +4140,7 @@
         <v>391</v>
       </c>
       <c r="B19" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="C19">
         <v>-0.1892781289181498</v>
@@ -6001,7 +4157,7 @@
         <v>414</v>
       </c>
       <c r="B20" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="C20">
         <v>-0.56980013711725086</v>
@@ -6018,7 +4174,7 @@
         <v>437</v>
       </c>
       <c r="B21" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="C21">
         <v>-0.43434218712926909</v>
@@ -6035,7 +4191,7 @@
         <v>460</v>
       </c>
       <c r="B22" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="C22">
         <v>-0.2335521117649037</v>
@@ -6052,7 +4208,7 @@
         <v>483</v>
       </c>
       <c r="B23" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="C23">
         <v>-0.33045320860368599</v>
@@ -6069,7 +4225,7 @@
         <v>506</v>
       </c>
       <c r="B24" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="C24">
         <v>-0.31419881022816648</v>
@@ -6103,7 +4259,7 @@
         <v>552</v>
       </c>
       <c r="B26" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="C26">
         <v>-0.1842409107112272</v>
@@ -6120,7 +4276,7 @@
         <v>575</v>
       </c>
       <c r="B27" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="C27">
         <v>-0.1118301288983508</v>
@@ -6137,7 +4293,7 @@
         <v>598</v>
       </c>
       <c r="B28" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="C28">
         <v>-5.4778887030039983E-2</v>
@@ -6154,7 +4310,7 @@
         <v>621</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="C29">
         <v>-4.5799205152538443E-2</v>
@@ -6171,7 +4327,7 @@
         <v>644</v>
       </c>
       <c r="B30" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="C30">
         <v>-0.12967470955985869</v>
@@ -6188,7 +4344,7 @@
         <v>667</v>
       </c>
       <c r="B31" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="C31">
         <v>0.17379519180080111</v>
@@ -6205,7 +4361,7 @@
         <v>690</v>
       </c>
       <c r="B32" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="C32">
         <v>0.46406402176499179</v>
@@ -6222,7 +4378,7 @@
         <v>713</v>
       </c>
       <c r="B33" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="C33">
         <v>0.3081063130580986</v>
@@ -6239,7 +4395,7 @@
         <v>736</v>
       </c>
       <c r="B34" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="C34">
         <v>0.52425624303183238</v>
@@ -6256,7 +4412,7 @@
         <v>759</v>
       </c>
       <c r="B35" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="C35">
         <v>0.65869735863112455</v>
@@ -6273,7 +4429,7 @@
         <v>782</v>
       </c>
       <c r="B36" t="s">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="C36">
         <v>0.73202786623727378</v>
@@ -6290,7 +4446,7 @@
         <v>805</v>
       </c>
       <c r="B37" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="C37">
         <v>0.14589830672614859</v>
@@ -6317,6 +4473,988 @@
       </c>
       <c r="E38">
         <v>8.1452947211903908</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:E34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2">
+        <v>-2.2135737945814559E-15</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>9.7301263520395906</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3">
+        <v>0.46059552816701022</v>
+      </c>
+      <c r="D3">
+        <v>-0.7661829305157476</v>
+      </c>
+      <c r="E3">
+        <v>8.7101406360077132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <v>1.159810609261384</v>
+      </c>
+      <c r="D4">
+        <v>-1.120837386420924</v>
+      </c>
+      <c r="E4">
+        <v>8.7940882470272808</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>1.080950936590064</v>
+      </c>
+      <c r="D5">
+        <v>-1.3778807253786229</v>
+      </c>
+      <c r="E5">
+        <v>8.6901230499110529</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>88</v>
+      </c>
+      <c r="B6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6">
+        <v>0.82679853444841034</v>
+      </c>
+      <c r="D6">
+        <v>-2.016709153957692</v>
+      </c>
+      <c r="E6">
+        <v>8.1731005123068474</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>110</v>
+      </c>
+      <c r="B7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7">
+        <v>0.66975483256232837</v>
+      </c>
+      <c r="D7">
+        <v>-2.5674427877812809</v>
+      </c>
+      <c r="E7">
+        <v>8.4668066342502151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>132</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>0.56307410745811182</v>
+      </c>
+      <c r="D8">
+        <v>-2.966119763993782</v>
+      </c>
+      <c r="E8">
+        <v>8.631683438092999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>154</v>
+      </c>
+      <c r="B9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9">
+        <v>0.43058606470433203</v>
+      </c>
+      <c r="D9">
+        <v>-3.279994652161891</v>
+      </c>
+      <c r="E9">
+        <v>8.4822195231620494</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>176</v>
+      </c>
+      <c r="B10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10">
+        <v>0.25345178823669412</v>
+      </c>
+      <c r="D10">
+        <v>-4.2171390901575396</v>
+      </c>
+      <c r="E10">
+        <v>9.3432068187072019</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>198</v>
+      </c>
+      <c r="B11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11">
+        <v>0.1918731027761828</v>
+      </c>
+      <c r="D11">
+        <v>-4.3688048179312418</v>
+      </c>
+      <c r="E11">
+        <v>8.3097960596951577</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>220</v>
+      </c>
+      <c r="B12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12">
+        <v>0.33078519580541382</v>
+      </c>
+      <c r="D12">
+        <v>-5.1076085806553237</v>
+      </c>
+      <c r="E12">
+        <v>8.6819777220713164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>242</v>
+      </c>
+      <c r="B13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13">
+        <v>0.62184168645083171</v>
+      </c>
+      <c r="D13">
+        <v>-5.8462764216987573</v>
+      </c>
+      <c r="E13">
+        <v>8.532756969632759</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>264</v>
+      </c>
+      <c r="B14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14">
+        <v>0.56629703054950331</v>
+      </c>
+      <c r="D14">
+        <v>-6.3989165650140869</v>
+      </c>
+      <c r="E14">
+        <v>8.6562384061211759</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>286</v>
+      </c>
+      <c r="B15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15">
+        <v>0.85045112298604109</v>
+      </c>
+      <c r="D15">
+        <v>-6.7937424338080623</v>
+      </c>
+      <c r="E15">
+        <v>8.2743540699402658</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>308</v>
+      </c>
+      <c r="B16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16">
+        <v>0.49307311169050422</v>
+      </c>
+      <c r="D16">
+        <v>-7.3242801615210498</v>
+      </c>
+      <c r="E16">
+        <v>8.1651059549528462</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>330</v>
+      </c>
+      <c r="B17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17">
+        <v>0.62475099667021561</v>
+      </c>
+      <c r="D17">
+        <v>-7.2388666523872747</v>
+      </c>
+      <c r="E17">
+        <v>7.9242660420533424</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>352</v>
+      </c>
+      <c r="B18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18">
+        <v>0.56641182357692799</v>
+      </c>
+      <c r="D18">
+        <v>-7.4530937011379423</v>
+      </c>
+      <c r="E18">
+        <v>7.8421113066563866</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>374</v>
+      </c>
+      <c r="B19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19">
+        <v>1.1914962865043459</v>
+      </c>
+      <c r="D19">
+        <v>-7.4056143750111207</v>
+      </c>
+      <c r="E19">
+        <v>8.9139502992385022</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>396</v>
+      </c>
+      <c r="B20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20">
+        <v>1.210250448318638</v>
+      </c>
+      <c r="D20">
+        <v>-7.410668216090798</v>
+      </c>
+      <c r="E20">
+        <v>8.6618950518985933</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>418</v>
+      </c>
+      <c r="B21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21">
+        <v>0.89354046472503079</v>
+      </c>
+      <c r="D21">
+        <v>-7.6190742028893261</v>
+      </c>
+      <c r="E21">
+        <v>8.8188081503143216</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>440</v>
+      </c>
+      <c r="B22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22">
+        <v>1.5871819855397289</v>
+      </c>
+      <c r="D22">
+        <v>-7.9133992717748862</v>
+      </c>
+      <c r="E22">
+        <v>8.5282910604115543</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>462</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23">
+        <v>1.441615292419961</v>
+      </c>
+      <c r="D23">
+        <v>-7.6077514885181472</v>
+      </c>
+      <c r="E23">
+        <v>8.5116828828963325</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>484</v>
+      </c>
+      <c r="B24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24">
+        <v>1.6865796123267689</v>
+      </c>
+      <c r="D24">
+        <v>-7.4446979695653939</v>
+      </c>
+      <c r="E24">
+        <v>8.5148792789994268</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>506</v>
+      </c>
+      <c r="B25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25">
+        <v>1.526749835160381</v>
+      </c>
+      <c r="D25">
+        <v>-7.3510912743721972</v>
+      </c>
+      <c r="E25">
+        <v>8.0766435627865807</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>528</v>
+      </c>
+      <c r="B26" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26">
+        <v>1.743848652180594</v>
+      </c>
+      <c r="D26">
+        <v>-7.1820706671547878</v>
+      </c>
+      <c r="E26">
+        <v>7.8386405778709216</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>550</v>
+      </c>
+      <c r="B27" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27">
+        <v>1.827895294698253</v>
+      </c>
+      <c r="D27">
+        <v>-6.9291226164780548</v>
+      </c>
+      <c r="E27">
+        <v>7.7380155960734562</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>572</v>
+      </c>
+      <c r="B28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28">
+        <v>1.687619086846917</v>
+      </c>
+      <c r="D28">
+        <v>-7.1904096785637277</v>
+      </c>
+      <c r="E28">
+        <v>7.7773022378483914</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>594</v>
+      </c>
+      <c r="B29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29">
+        <v>1.561275149604707</v>
+      </c>
+      <c r="D29">
+        <v>-7.2070410799652693</v>
+      </c>
+      <c r="E29">
+        <v>7.7653969462761019</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>616</v>
+      </c>
+      <c r="B30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C30">
+        <v>1.345895035057171</v>
+      </c>
+      <c r="D30">
+        <v>-7.4961513434246108</v>
+      </c>
+      <c r="E30">
+        <v>8.0442342286662516</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>638</v>
+      </c>
+      <c r="B31" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31">
+        <v>1.396011666690204</v>
+      </c>
+      <c r="D31">
+        <v>-7.5536936611966121</v>
+      </c>
+      <c r="E31">
+        <v>8.1008654739042569</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>660</v>
+      </c>
+      <c r="B32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32">
+        <v>1.5270880053143649</v>
+      </c>
+      <c r="D32">
+        <v>-7.5534381870865914</v>
+      </c>
+      <c r="E32">
+        <v>8.0665296335829488</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>682</v>
+      </c>
+      <c r="B33" t="s">
+        <v>125</v>
+      </c>
+      <c r="C33">
+        <v>1.918830278320959</v>
+      </c>
+      <c r="D33">
+        <v>-7.7858757415501536</v>
+      </c>
+      <c r="E33">
+        <v>8.5027265812531461</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>704</v>
+      </c>
+      <c r="B34">
+        <v>1.3191198486573141</v>
+      </c>
+      <c r="C34">
+        <v>2.3067427520560519</v>
+      </c>
+      <c r="D34">
+        <v>-7.6230836179573398</v>
+      </c>
+      <c r="E34">
+        <v>8.6140110638753171</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView zoomScale="180" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2">
+        <v>-2.3633014255053661E-15</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>9.7645448981977783</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3">
+        <v>-0.45907580265291331</v>
+      </c>
+      <c r="D3">
+        <v>-0.54835438886943455</v>
+      </c>
+      <c r="E3">
+        <v>8.8319991928266486</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4">
+        <v>-0.43327808584380217</v>
+      </c>
+      <c r="D4">
+        <v>-9.8037946083636113E-2</v>
+      </c>
+      <c r="E4">
+        <v>8.5818098308688331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>84</v>
+      </c>
+      <c r="B5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5">
+        <v>-0.81007127321585315</v>
+      </c>
+      <c r="D5">
+        <v>-0.42077059606200329</v>
+      </c>
+      <c r="E5">
+        <v>8.8559905423286231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>112</v>
+      </c>
+      <c r="B6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6">
+        <v>-1.250189914825897</v>
+      </c>
+      <c r="D6">
+        <v>0.15060494687716139</v>
+      </c>
+      <c r="E6">
+        <v>9.3592049528920658</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>140</v>
+      </c>
+      <c r="B7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7">
+        <v>0.50058364569220604</v>
+      </c>
+      <c r="D7">
+        <v>-2.2389934557322868</v>
+      </c>
+      <c r="E7">
+        <v>8.8422034701862042</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>168</v>
+      </c>
+      <c r="B8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8">
+        <v>0.38214295624774708</v>
+      </c>
+      <c r="D8">
+        <v>-1.655111008303628</v>
+      </c>
+      <c r="E8">
+        <v>8.6687289072669831</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>196</v>
+      </c>
+      <c r="B9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9">
+        <v>0.37664688059708168</v>
+      </c>
+      <c r="D9">
+        <v>-1.243769656985547</v>
+      </c>
+      <c r="E9">
+        <v>8.9954510605263458</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>224</v>
+      </c>
+      <c r="B10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10">
+        <v>3.9437157143169602E-2</v>
+      </c>
+      <c r="D10">
+        <v>-1.607822171369709</v>
+      </c>
+      <c r="E10">
+        <v>8.5939573551533393</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>252</v>
+      </c>
+      <c r="B11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11">
+        <v>0.35419597420797572</v>
+      </c>
+      <c r="D11">
+        <v>-1.697838686539584</v>
+      </c>
+      <c r="E11">
+        <v>9.0719811520025768</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>280</v>
+      </c>
+      <c r="B12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12">
+        <v>1.8322993430939589</v>
+      </c>
+      <c r="D12">
+        <v>-2.8412698194948289</v>
+      </c>
+      <c r="E12">
+        <v>8.7852288823168401</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>308</v>
+      </c>
+      <c r="B13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13">
+        <v>0.67545307762116569</v>
+      </c>
+      <c r="D13">
+        <v>-1.8724004905197451</v>
+      </c>
+      <c r="E13">
+        <v>8.9891588844933068</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>336</v>
+      </c>
+      <c r="B14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14">
+        <v>0.42950822136700051</v>
+      </c>
+      <c r="D14">
+        <v>-2.28309880467972</v>
+      </c>
+      <c r="E14">
+        <v>9.2878985757403427</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>364</v>
+      </c>
+      <c r="B15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15">
+        <v>0.5744411481519156</v>
+      </c>
+      <c r="D15">
+        <v>-2.9399785414292241</v>
+      </c>
+      <c r="E15">
+        <v>10.044465706061191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>392</v>
+      </c>
+      <c r="B16" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16">
+        <v>4.9712652726904498E-2</v>
+      </c>
+      <c r="D16">
+        <v>-2.7702280654061382</v>
+      </c>
+      <c r="E16">
+        <v>9.6156485798723406</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>420</v>
+      </c>
+      <c r="B17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17">
+        <v>0.1462487897623789</v>
+      </c>
+      <c r="D17">
+        <v>-2.8889234798861252</v>
+      </c>
+      <c r="E17">
+        <v>9.1991415982240223</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>448</v>
+      </c>
+      <c r="B18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C18">
+        <v>0.28893739617438602</v>
+      </c>
+      <c r="D18">
+        <v>-2.6331294646275292</v>
+      </c>
+      <c r="E18">
+        <v>9.2020242874674523</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>476</v>
+      </c>
+      <c r="B19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19">
+        <v>0.3005051593053501</v>
+      </c>
+      <c r="D19">
+        <v>-2.5491367960576738</v>
+      </c>
+      <c r="E19">
+        <v>9.0282171939244336</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>504</v>
+      </c>
+      <c r="B20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20">
+        <v>0.12775118106876679</v>
+      </c>
+      <c r="D20">
+        <v>-2.5039266348430762</v>
+      </c>
+      <c r="E20">
+        <v>9.9808924996249271</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>532</v>
+      </c>
+      <c r="B21" t="s">
+        <v>145</v>
+      </c>
+      <c r="C21">
+        <v>-0.27018708484714188</v>
+      </c>
+      <c r="D21">
+        <v>-2.7064715045996901</v>
+      </c>
+      <c r="E21">
+        <v>9.8136749940084407</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>560</v>
+      </c>
+      <c r="B22">
+        <v>2.056346924699719</v>
+      </c>
+      <c r="C22">
+        <v>0.31337376269948602</v>
+      </c>
+      <c r="D22">
+        <v>-2.3183535084423759</v>
+      </c>
+      <c r="E22">
+        <v>10.403324529389151</v>
       </c>
     </row>
   </sheetData>
